--- a/설명자료/관계데이터모델.xlsx
+++ b/설명자료/관계데이터모델.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20379"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\in\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\class\oracle\설명자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD44DB8B-DAB2-4DDD-AD70-7A26F224CAFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A361C475-C6B4-4330-A7CC-916F56D7690D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10344" xr2:uid="{8CAB461B-4961-4652-9002-EDCA750F5109}"/>
   </bookViews>
@@ -303,9 +303,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -313,6 +310,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -631,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A08B80-C3B1-4380-9B04-F97E28559BFB}">
   <dimension ref="B2:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -752,13 +752,13 @@
       <c r="F8" s="1"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="12" spans="2:8" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
@@ -863,97 +863,96 @@
       <c r="E19" s="1"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6" t="s">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6" t="s">
+      <c r="E24" s="5"/>
+      <c r="F24" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>2</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7">
+      <c r="C25" s="5"/>
+      <c r="D25" s="6">
         <v>1</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="7">
+      <c r="E25" s="5"/>
+      <c r="F25" s="6">
         <v>2</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <v>4</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7">
+      <c r="C26" s="5"/>
+      <c r="D26" s="6">
         <v>3</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7">
+      <c r="E26" s="5"/>
+      <c r="F26" s="6">
         <v>2</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7">
+      <c r="C27" s="5"/>
+      <c r="D27" s="6">
         <v>5</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="7">
+      <c r="E27" s="5"/>
+      <c r="F27" s="6">
         <v>2</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="7">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6">
         <v>4</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="7">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6">
         <v>4</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="7">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="6">
         <v>4</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="6">
         <v>5</v>
       </c>
     </row>
@@ -1100,7 +1099,7 @@
       </c>
     </row>
     <row r="54" spans="2:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="7" t="s">
         <v>40</v>
       </c>
     </row>
